--- a/DATA/panynj-traffic-data/ref Facilities Geodata.xlsx
+++ b/DATA/panynj-traffic-data/ref Facilities Geodata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveenmu-my.sharepoint.com/personal/shchelkn_ad_enet_enmu_edu/Documents/Desktop/PANYNJ Traffic Data/PANYNJ Traffic Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82FBFDA5-C209-4C65-B3C8-898FCDD705CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{82FBFDA5-C209-4C65-B3C8-898FCDD705CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{931E5834-5E05-4B83-B526-16615447FB47}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1D8BE841-C212-4A3A-8175-49C0305561C1}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Facility</t>
   </si>
@@ -47,13 +47,34 @@
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>Image URL</t>
+  </si>
+  <si>
+    <t>https://nikshchelkov.github.io/DATA/panynj-traffic-data/Pictures/BB.png</t>
+  </si>
+  <si>
+    <t>https://nikshchelkov.github.io/DATA/panynj-traffic-data/Pictures/GWB.png</t>
+  </si>
+  <si>
+    <t>https://nikshchelkov.github.io/DATA/panynj-traffic-data/Pictures/GB.png</t>
+  </si>
+  <si>
+    <t>https://nikshchelkov.github.io/DATA/panynj-traffic-data/Pictures/HT.png</t>
+  </si>
+  <si>
+    <t>https://nikshchelkov.github.io/DATA/panynj-traffic-data/Pictures/LT.png</t>
+  </si>
+  <si>
+    <t>https://nikshchelkov.github.io/DATA/panynj-traffic-data/Pictures/OC.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +205,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -486,7 +515,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -529,11 +558,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -567,6 +598,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -907,18 +939,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F1A82D-BFF7-4559-BF38-F2E39D6674BA}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -928,8 +963,11 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -939,8 +977,11 @@
       <c r="C2">
         <v>-74.142165116330702</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -950,8 +991,11 @@
       <c r="C3">
         <v>-73.950003416322502</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -961,8 +1005,11 @@
       <c r="C4">
         <v>-74.197257004784802</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -972,8 +1019,11 @@
       <c r="C5">
         <v>-74.022809860503699</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -983,8 +1033,11 @@
       <c r="C6">
         <v>-74.007464589337701</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -994,8 +1047,19 @@
       <c r="C7">
         <v>-74.246445531803005</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{BCA290C3-AD40-4A68-A957-78A24CC6504B}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{6BE2ACA7-3C82-467C-808C-55E9DA278A10}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{4C582B9A-2FDB-408D-BBC5-6ADC44B912B5}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{E7E7B5E2-183B-43EB-B723-896C535E1C51}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{43A43BEB-E95C-442F-A278-E4FAC3D7E63D}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{0D87EDF2-5AEB-4EB9-908D-DADC138B1D74}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>